--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.228361701045</v>
+        <v>9995.44397850799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.228361701045</v>
+        <v>9995.44397850799</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81556.32068998044</v>
+        <v>5509870.527589663</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81556.32068998044</v>
+        <v>5509870.527589663</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418378439.037697</v>
+        <v>52074715.1035222</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14894.49952855479</v>
+        <v>1208574.498620653</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28818.73173606655</v>
+        <v>2247271.42879828</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42728.14636495017</v>
+        <v>3285968.358975908</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56926.3084449468</v>
+        <v>4323624.222150367</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71124.47210921044</v>
+        <v>5361280.085324826</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85322.63577347413</v>
+        <v>6398935.948499284</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99520.79943773776</v>
+        <v>7436591.811673736</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113718.9631020015</v>
+        <v>8474247.674848188</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127927.4657030965</v>
+        <v>9510828.856917482</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>142136.6858522159</v>
+        <v>10547552.83104361</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>156345.9060013353</v>
+        <v>11584276.80516974</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>170555.1261504547</v>
+        <v>12621000.77929589</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184764.3462995741</v>
+        <v>13657724.75342203</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199595.9885765254</v>
+        <v>14631331.93460739</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>214427.6308534769</v>
+        <v>15604939.11579275</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27058,13 +27058,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>177</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
